--- a/Document/애니.xlsx
+++ b/Document/애니.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="애니" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. 캐릭터 스킬 방향</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +175,34 @@
   </si>
   <si>
     <t>빠른 속도로 공격한다는 느낌을 주면 좋을 꺼 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용처 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시간 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,9 +579,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
